--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7FCD5-7004-44F3-B5E2-2EA882701229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4640A-3CBD-4486-BC70-2FDEC2894145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>STATUS</t>
   </si>
@@ -134,9 +134,6 @@
     <t>JST-SM 2/3/4/5 pin header set</t>
   </si>
   <si>
-    <t>Ordered</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/zestaw-zlacz-justpi-jst-sm-2-3-4-5pin-11787730550</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>Order pending</t>
+  </si>
+  <si>
+    <t>Security ON/OFF switch</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,17 +254,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -580,7 +601,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>31</v>
@@ -894,7 +915,7 @@
         <v>45155</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -902,13 +923,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -921,7 +942,7 @@
         <v>45155</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -929,13 +950,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -948,7 +969,7 @@
         <v>45155</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -956,13 +977,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
         <v>32.9</v>
@@ -975,21 +996,21 @@
         <v>45155</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4">
         <v>3.5</v>
@@ -1002,21 +1023,21 @@
         <v>45155</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4">
         <v>10.9</v>
@@ -1029,21 +1050,21 @@
         <v>45155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>134.78</v>
@@ -1056,21 +1077,21 @@
         <v>45155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4">
         <v>104.57</v>
@@ -1083,21 +1104,21 @@
         <v>45155</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4">
         <v>73.55</v>
@@ -1110,25 +1131,31 @@
         <v>45155</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
         <v>51</v>
-      </c>
-      <c r="H19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D4640A-3CBD-4486-BC70-2FDEC2894145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F133E1-293B-493A-B235-498C48D7CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>STATUS</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Security ON/OFF switch</t>
+  </si>
+  <si>
+    <t>Electric cubes</t>
+  </si>
+  <si>
+    <t>Tubular terminals</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,12 +1168,24 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F133E1-293B-493A-B235-498C48D7CE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D28220B-84F5-4B58-9566-ABE4234E75D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
   <si>
     <t>STATUS</t>
   </si>
@@ -197,19 +197,58 @@
     <t>40A ESC and 1000KV BLDC motor set</t>
   </si>
   <si>
-    <t>ToF module</t>
-  </si>
-  <si>
     <t>Order pending</t>
   </si>
   <si>
     <t>Security ON/OFF switch</t>
   </si>
   <si>
-    <t>Electric cubes</t>
-  </si>
-  <si>
-    <t>Tubular terminals</t>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>https://pl.aliexpress.com/item/4000074204979.html</t>
+  </si>
+  <si>
+    <t>AliExpress (SAMIORE Store)</t>
+  </si>
+  <si>
+    <t>VL53L1X ToF module</t>
+  </si>
+  <si>
+    <t>Electric cubes (12 x 2,5 mm2)</t>
+  </si>
+  <si>
+    <t>Electric cubes (12 x 4 mm2)</t>
+  </si>
+  <si>
+    <t>Tubular terminals set</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/listwa-zaciskowa-zlaczka-kostka-12-torowa-2-5mm2-8501387810</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zlaczka-listwa-instalacyjna-kablowa-12-torowa-4mm-7270241593</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zaciskarka-do-konektorow-koncowek-500-tulejek-13993749597</t>
+  </si>
+  <si>
+    <t>Allegro (electro_24)</t>
+  </si>
+  <si>
+    <t>Universal PCB set</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/gp/product/B07V25W5RT</t>
+  </si>
+  <si>
+    <t>Amazon (AZDelivery)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.pl/gp/product/B07V9XD2R6</t>
+  </si>
+  <si>
+    <t>IR module set</t>
   </si>
 </sst>
 </file>
@@ -607,7 +646,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +720,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1049.7599999999998</v>
+        <v>1243.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1145,68 +1184,179 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="4">
+        <v>19.39</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77.56</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45173</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.57</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.89</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.89</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4">
+        <v>54.9</v>
+      </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>54.9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4">
+        <v>33.99</v>
+      </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.99</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20.49</v>
+      </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.49</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45173</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,11 +1403,15 @@
     <hyperlink ref="G17" r:id="rId16" xr:uid="{C0C42E86-6D63-47BA-A7BA-99FBDBE40FFD}"/>
     <hyperlink ref="G18" r:id="rId17" xr:uid="{D16BEF02-7279-4BFB-9320-0B14F78FADFA}"/>
     <hyperlink ref="G19" r:id="rId18" xr:uid="{003A6297-5E9E-4118-B04B-4AE77CCF64DD}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{244721A6-3D1C-472D-BE6E-F287FAB9C0D2}"/>
+    <hyperlink ref="G22" r:id="rId20" xr:uid="{7D3F1602-E6B5-408C-9BF4-A94AA9C5B44A}"/>
+    <hyperlink ref="G25" r:id="rId21" xr:uid="{D015618B-55E1-4112-A7D6-28E79F978169}"/>
+    <hyperlink ref="G26" r:id="rId22" xr:uid="{B1D75C8F-A40A-4979-83D0-22AE1D3F8523}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId19"/>
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D28220B-84F5-4B58-9566-ABE4234E75D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865CB86-7CB1-4A0C-8AD9-51F570485ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>STATUS</t>
   </si>
@@ -116,9 +116,6 @@
     <t>https://allegro.pl/oferta/radiator-silnika-krokowego-40x40x11-czarny-nema17-12867637945</t>
   </si>
   <si>
-    <t>Coupler (5 x 8)</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/sprzeglo-elastyczne-5x8-aluminiowe-cnc-13094635538</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>40A ESC and 1000KV BLDC motor set</t>
   </si>
   <si>
-    <t>Order pending</t>
-  </si>
-  <si>
     <t>Security ON/OFF switch</t>
   </si>
   <si>
@@ -249,6 +243,63 @@
   </si>
   <si>
     <t>IR module set</t>
+  </si>
+  <si>
+    <t>OLED display (I2C, 0.96 in)</t>
+  </si>
+  <si>
+    <t>XT60 male connector with AWG12 wires</t>
+  </si>
+  <si>
+    <t>XT60 female connector with AWG12 wires</t>
+  </si>
+  <si>
+    <t>ARK 3 PIN connector</t>
+  </si>
+  <si>
+    <t>Male goldpin (40 pcs.)</t>
+  </si>
+  <si>
+    <t>Female goldpin (40 pcs.)</t>
+  </si>
+  <si>
+    <t>Allegro (Platet-A)</t>
+  </si>
+  <si>
+    <t>Resistors set (700 pcs.)</t>
+  </si>
+  <si>
+    <t>LED diodes set (100 pcs.)</t>
+  </si>
+  <si>
+    <t>Coupler (5 mm, 8 mm)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-xt60-z-przewodem-10cm-awg12-zenskie-14091453758</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/wtyk-xt60-meski-z-przewodem-10cm-awg12-14093751536</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/wyswietlacz-oled-0-96-cala-i2c-iic-4-pin-bialy-13396251090</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/przelacznik-klawiszowy-on-off-250v-kcd1-104-6a-12386835341</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-diod-led-5mm-rgb-biale-100szt-mix-13396031473</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-rezystorow-przewlekanych-0-25w-1-700-sztuk-13498410400</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/listwa-gold-pin-2x40-meska-tht-2-54mm-prosta-10248104944</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-szplikowe-goldpin-raster-2-54mm-1x40-10248060552</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/konektor-listwa-ak-ark-5-0mm-h-10mm-3-pin-x-2szt-10420014477</t>
   </si>
 </sst>
 </file>
@@ -350,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H30" totalsRowShown="0">
-  <autoFilter ref="A1:H30" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H34" totalsRowShown="0">
+  <autoFilter ref="A1:H34" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -643,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +771,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1243.3</v>
+        <v>1366.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -737,7 +788,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E30" si="0">PRODUCT(B3*D3)</f>
+        <f t="shared" ref="E3:E20" si="0">PRODUCT(B3*D3)</f>
         <v>35</v>
       </c>
       <c r="F3" s="2">
@@ -887,7 +938,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -906,7 +957,7 @@
         <v>45124</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -914,7 +965,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -933,15 +984,15 @@
         <v>45148</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -960,15 +1011,15 @@
         <v>45155</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -987,15 +1038,15 @@
         <v>45155</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1014,15 +1065,15 @@
         <v>45155</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1041,15 +1092,15 @@
         <v>45155</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1068,15 +1119,15 @@
         <v>45155</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1095,15 +1146,15 @@
         <v>45155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1122,15 +1173,15 @@
         <v>45155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1149,15 +1200,15 @@
         <v>45155</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
         <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1176,21 +1227,21 @@
         <v>45155</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
         <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4">
         <v>19.39</v>
@@ -1203,124 +1254,136 @@
         <v>45173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.57</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>PRODUCT(B21*D21)</f>
+        <v>4.71</v>
       </c>
       <c r="F21" s="2">
         <v>45173</v>
       </c>
+      <c r="G21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D22" s="4">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>4.71</v>
+        <f>PRODUCT(B22*D22)</f>
+        <v>1.89</v>
       </c>
       <c r="F22" s="2">
         <v>45173</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4">
-        <v>1.89</v>
+        <v>54.9</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.89</v>
+        <f>PRODUCT(B23*D23)</f>
+        <v>54.9</v>
       </c>
       <c r="F23" s="2">
         <v>45173</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
         <v>63</v>
-      </c>
-      <c r="H23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4">
-        <v>54.9</v>
+        <v>33.99</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>54.9</v>
+        <f>PRODUCT(B24*D24)</f>
+        <v>33.99</v>
       </c>
       <c r="F24" s="2">
         <v>45173</v>
       </c>
-      <c r="G24" t="s">
-        <v>64</v>
+      <c r="G24" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4">
-        <v>33.99</v>
+        <v>20.49</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>33.99</v>
+        <f>PRODUCT(B25*D25)</f>
+        <v>20.49</v>
       </c>
       <c r="F25" s="2">
         <v>45173</v>
@@ -1329,58 +1392,250 @@
         <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4">
+        <f>PRODUCT(B26*D26)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" ref="E27:E30" si="1">PRODUCT(B27*D27)</f>
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="4">
-        <v>20.49</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>20.49</v>
-      </c>
-      <c r="F26" s="2">
-        <v>45173</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4">
+        <v>15.5</v>
+      </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4">
+        <v>15.5</v>
+      </c>
       <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <v>12</v>
+      </c>
       <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ref="E31:E32" si="2">PRODUCT(B31*D31)</f>
+        <v>15</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4">
+        <f>PRODUCT(B33*D33)</f>
+        <v>12</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="E34" s="4">
+        <f>PRODUCT(B34*D34)</f>
+        <v>22.9</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45181</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1404,14 +1659,25 @@
     <hyperlink ref="G18" r:id="rId17" xr:uid="{D16BEF02-7279-4BFB-9320-0B14F78FADFA}"/>
     <hyperlink ref="G19" r:id="rId18" xr:uid="{003A6297-5E9E-4118-B04B-4AE77CCF64DD}"/>
     <hyperlink ref="G20" r:id="rId19" xr:uid="{244721A6-3D1C-472D-BE6E-F287FAB9C0D2}"/>
-    <hyperlink ref="G22" r:id="rId20" xr:uid="{7D3F1602-E6B5-408C-9BF4-A94AA9C5B44A}"/>
-    <hyperlink ref="G25" r:id="rId21" xr:uid="{D015618B-55E1-4112-A7D6-28E79F978169}"/>
-    <hyperlink ref="G26" r:id="rId22" xr:uid="{B1D75C8F-A40A-4979-83D0-22AE1D3F8523}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{7D3F1602-E6B5-408C-9BF4-A94AA9C5B44A}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{D015618B-55E1-4112-A7D6-28E79F978169}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{B1D75C8F-A40A-4979-83D0-22AE1D3F8523}"/>
+    <hyperlink ref="G22" r:id="rId23" xr:uid="{AA8B21F2-024D-432B-A6BD-1952FBEE2FD0}"/>
+    <hyperlink ref="G23" r:id="rId24" xr:uid="{B3AD5637-8980-4F57-92DF-1CCB701E0E55}"/>
+    <hyperlink ref="G29" r:id="rId25" xr:uid="{67BB4281-9CBC-4C8A-A415-FE4F099C87FF}"/>
+    <hyperlink ref="G28" r:id="rId26" xr:uid="{010A41F6-DAAF-4AED-B438-036B0FB0E4F0}"/>
+    <hyperlink ref="G27" r:id="rId27" xr:uid="{9661D116-3AAF-48B2-AD54-2056078D7301}"/>
+    <hyperlink ref="G26" r:id="rId28" xr:uid="{6CA3E8EC-E5BB-4D96-B61C-1EDE7EB2D1C3}"/>
+    <hyperlink ref="G30" r:id="rId29" xr:uid="{4332FC3A-A51B-4368-9AC0-483D98BF86D9}"/>
+    <hyperlink ref="G34" r:id="rId30" xr:uid="{8F2DF8F4-E847-4DB0-B975-7C8914A7D0E1}"/>
+    <hyperlink ref="G32" r:id="rId31" xr:uid="{13ECFFB7-5315-4247-983C-5C2687A809CA}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{84B4B117-EA41-4CDE-B53A-0BAA26B06B03}"/>
+    <hyperlink ref="G31" r:id="rId33" xr:uid="{68BD9474-984F-454C-9E53-DDDA097AB678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId23"/>
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0865CB86-7CB1-4A0C-8AD9-51F570485ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3D796-EE16-4901-91C7-91C69E6553BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
   <si>
     <t>STATUS</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>Security ON/OFF switch</t>
-  </si>
-  <si>
-    <t>Ordered</t>
   </si>
   <si>
     <t>https://pl.aliexpress.com/item/4000074204979.html</t>
@@ -696,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -938,7 +935,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1235,13 +1232,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
         <v>19.39</v>
@@ -1254,15 +1251,15 @@
         <v>45173</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1274,22 +1271,22 @@
         <v>1.57</v>
       </c>
       <c r="E21" s="4">
-        <f>PRODUCT(B21*D21)</f>
+        <f t="shared" ref="E21:E26" si="1">PRODUCT(B21*D21)</f>
         <v>4.71</v>
       </c>
       <c r="F21" s="2">
         <v>45173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1301,22 +1298,22 @@
         <v>1.89</v>
       </c>
       <c r="E22" s="4">
-        <f>PRODUCT(B22*D22)</f>
+        <f t="shared" si="1"/>
         <v>1.89</v>
       </c>
       <c r="F22" s="2">
         <v>45173</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1328,22 +1325,22 @@
         <v>54.9</v>
       </c>
       <c r="E23" s="4">
-        <f>PRODUCT(B23*D23)</f>
+        <f t="shared" si="1"/>
         <v>54.9</v>
       </c>
       <c r="F23" s="2">
         <v>45173</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
         <v>62</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1355,22 +1352,22 @@
         <v>33.99</v>
       </c>
       <c r="E24" s="4">
-        <f>PRODUCT(B24*D24)</f>
+        <f t="shared" si="1"/>
         <v>33.99</v>
       </c>
       <c r="F24" s="2">
         <v>45173</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1382,17 +1379,17 @@
         <v>20.49</v>
       </c>
       <c r="E25" s="4">
-        <f>PRODUCT(B25*D25)</f>
+        <f t="shared" si="1"/>
         <v>20.49</v>
       </c>
       <c r="F25" s="2">
         <v>45173</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,196 +1400,196 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4">
-        <f>PRODUCT(B26*D26)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F26" s="2">
         <v>45181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4">
         <v>20</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" ref="E27:E30" si="1">PRODUCT(B27*D27)</f>
+        <f t="shared" ref="E27:E30" si="2">PRODUCT(B27*D27)</f>
         <v>20</v>
       </c>
       <c r="F27" s="2">
         <v>45181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4">
         <v>15.5</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="F28" s="2">
         <v>45181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4">
         <v>15.5</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="F29" s="2">
         <v>45181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4">
         <v>12</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F30" s="2">
         <v>45181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4">
         <v>1.5</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" ref="E31:E32" si="2">PRODUCT(B31*D31)</f>
+        <f t="shared" ref="E31:E32" si="3">PRODUCT(B31*D31)</f>
         <v>15</v>
       </c>
       <c r="F31" s="2">
         <v>45181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D32" s="4">
         <v>1.5</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F32" s="2">
         <v>45181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -1605,21 +1602,21 @@
         <v>45181</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4">
         <v>22.9</v>
@@ -1632,10 +1629,10 @@
         <v>45181</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB3D796-EE16-4901-91C7-91C69E6553BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE56E3-58DE-4E8D-88A6-DD9BAF7745D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>STATUS</t>
   </si>
@@ -254,12 +254,6 @@
     <t>ARK 3 PIN connector</t>
   </si>
   <si>
-    <t>Male goldpin (40 pcs.)</t>
-  </si>
-  <si>
-    <t>Female goldpin (40 pcs.)</t>
-  </si>
-  <si>
     <t>Allegro (Platet-A)</t>
   </si>
   <si>
@@ -297,6 +291,51 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/konektor-listwa-ak-ark-5-0mm-h-10mm-3-pin-x-2szt-10420014477</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/listwa-goldpin-2x40-zenska-raster-2-54mm-10szt-12327613595</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/wtyk-goldpin-2x40-katowy-raster-2-54mm-14376476217</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-zlacz-jst-xh2-54-meskie-zenskie-i-pinow-11032577415</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-zlacz-jst-xh2-54-6-7-8-9-10-pin-2-54mm-12635826639</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>JST-XH 2-5 PIN connector set (230 pcs.)</t>
+  </si>
+  <si>
+    <t>JST-XH 6-10 PIN connector set (260 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/goldpin-czarny-1x40-szpil-katowy-raster-2-54mm-13410442465</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/goldpin-czarny-1x40-szpil-prosty-raster-2-54mm-13717595094</t>
+  </si>
+  <si>
+    <t>Male goldpin (2,54mm, 2x40)</t>
+  </si>
+  <si>
+    <t>Female goldpin (2,54mm, 1x40)</t>
+  </si>
+  <si>
+    <t>Female goldpin (2,54mm, 2x40)</t>
+  </si>
+  <si>
+    <t>Male goldpin (2,54mm, 2x40, curved)</t>
+  </si>
+  <si>
+    <t>Male goldpin (2,54mm, 1x40, curved)</t>
+  </si>
+  <si>
+    <t>Male goldpin (2,54mm, 1x40)</t>
   </si>
 </sst>
 </file>
@@ -398,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H34" totalsRowShown="0">
-  <autoFilter ref="A1:H34" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -691,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +807,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1366.2</v>
+        <v>1443.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -935,7 +974,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1413,10 +1452,10 @@
         <v>45181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,10 +1479,10 @@
         <v>45181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,10 +1506,10 @@
         <v>45181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,15 +1533,15 @@
         <v>45181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1521,10 +1560,10 @@
         <v>45181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,24 +1587,24 @@
         <v>45181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="3"/>
@@ -1575,15 +1614,15 @@
         <v>45181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1602,15 +1641,15 @@
         <v>45181</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1629,11 +1668,200 @@
         <v>45181</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" ref="E35:E49" si="4">PRODUCT(B35*D35)</f>
+        <v>2.6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="4">
+        <v>25</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="4">
+        <v>31</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45218</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1670,11 +1898,17 @@
     <hyperlink ref="G32" r:id="rId31" xr:uid="{13ECFFB7-5315-4247-983C-5C2687A809CA}"/>
     <hyperlink ref="G33" r:id="rId32" xr:uid="{84B4B117-EA41-4CDE-B53A-0BAA26B06B03}"/>
     <hyperlink ref="G31" r:id="rId33" xr:uid="{68BD9474-984F-454C-9E53-DDDA097AB678}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{B0079B2A-291D-42CB-A4B6-533D19DF527C}"/>
+    <hyperlink ref="G36" r:id="rId35" xr:uid="{960F0B4B-A8B2-4C2E-91B1-7DABB95476D2}"/>
+    <hyperlink ref="G37" r:id="rId36" xr:uid="{3B25B34F-C4C8-4D3E-A2CD-3490E409EA1A}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{843B5765-13EC-4818-964E-DCE8554A4982}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{EEACEC80-66C3-4FA5-9433-DF4C32F77567}"/>
+    <hyperlink ref="G40" r:id="rId39" xr:uid="{DD9DA7C6-B2EB-460F-98E3-14CF452D4609}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId34"/>
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEE56E3-58DE-4E8D-88A6-DD9BAF7745D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93E892-32FF-4483-BC88-B1CB36D8A139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>STATUS</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/zestaw-zlacz-jst-xh2-54-6-7-8-9-10-pin-2-54mm-12635826639</t>
-  </si>
-  <si>
-    <t>Ordered</t>
   </si>
   <si>
     <t>JST-XH 2-5 PIN connector set (230 pcs.)</t>
@@ -732,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
@@ -1595,7 +1592,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1622,7 +1619,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1676,19 +1673,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4">
         <v>1.3</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:E49" si="4">PRODUCT(B35*D35)</f>
+        <f t="shared" ref="E35:E40" si="4">PRODUCT(B35*D35)</f>
         <v>2.6</v>
       </c>
       <c r="F35" s="2">
@@ -1703,13 +1700,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
@@ -1730,13 +1727,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D37" s="4">
         <v>25</v>
@@ -1757,13 +1754,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D38" s="4">
         <v>31</v>
@@ -1784,13 +1781,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
@@ -1803,7 +1800,7 @@
         <v>45218</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s">
         <v>43</v>
@@ -1811,13 +1808,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4">
         <v>1.7</v>
@@ -1830,7 +1827,7 @@
         <v>45218</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93E892-32FF-4483-BC88-B1CB36D8A139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697B9FD-2250-4C11-948F-55D2C2ECC085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
   <si>
     <t>STATUS</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Male goldpin (2,54mm, 1x40)</t>
+  </si>
+  <si>
+    <t>Ordered</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H40" totalsRowShown="0">
-  <autoFilter ref="A1:H40" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H41" totalsRowShown="0">
+  <autoFilter ref="A1:H41" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +807,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1443.6</v>
+        <v>1513.8799999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1685,7 +1688,7 @@
         <v>1.3</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" ref="E35:E40" si="4">PRODUCT(B35*D35)</f>
+        <f t="shared" ref="E35:E41" si="4">PRODUCT(B35*D35)</f>
         <v>2.6</v>
       </c>
       <c r="F35" s="2">
@@ -1834,7 +1837,31 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F41" s="2"/>
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="4">
+        <v>17.57</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="4"/>
+        <v>70.28</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45257</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
@@ -1901,11 +1928,12 @@
     <hyperlink ref="G38" r:id="rId37" xr:uid="{843B5765-13EC-4818-964E-DCE8554A4982}"/>
     <hyperlink ref="G39" r:id="rId38" xr:uid="{EEACEC80-66C3-4FA5-9433-DF4C32F77567}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{DD9DA7C6-B2EB-460F-98E3-14CF452D4609}"/>
+    <hyperlink ref="G41" r:id="rId40" xr:uid="{8D6E8713-2359-4426-BBB9-A1B7FB073886}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId40"/>
     <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697B9FD-2250-4C11-948F-55D2C2ECC085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4D2D2-49B3-4CA2-8DD4-D4DBD1DD610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>STATUS</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>Ordered</t>
+  </si>
+  <si>
+    <t>ZS-X10 V3 BLDC motor driver</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/sterownik-silnikow-bldc-6-20v-3a-13359462424</t>
   </si>
 </sst>
 </file>
@@ -437,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H41" totalsRowShown="0">
-  <autoFilter ref="A1:H41" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H42" totalsRowShown="0">
+  <autoFilter ref="A1:H42" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +813,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1513.8799999999999</v>
+        <v>1558.6299999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1864,7 +1870,31 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="2"/>
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44.75</v>
+      </c>
+      <c r="E42" s="4">
+        <f>PRODUCT(B42*D42)</f>
+        <v>44.75</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45261</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F43" s="2"/>
@@ -1929,11 +1959,12 @@
     <hyperlink ref="G39" r:id="rId38" xr:uid="{EEACEC80-66C3-4FA5-9433-DF4C32F77567}"/>
     <hyperlink ref="G40" r:id="rId39" xr:uid="{DD9DA7C6-B2EB-460F-98E3-14CF452D4609}"/>
     <hyperlink ref="G41" r:id="rId40" xr:uid="{8D6E8713-2359-4426-BBB9-A1B7FB073886}"/>
+    <hyperlink ref="G42" r:id="rId41" xr:uid="{C0F43067-B0F6-4A19-80FD-3844EDBD59D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId41"/>
     <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4D2D2-49B3-4CA2-8DD4-D4DBD1DD610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C99942-C54D-4656-AE74-575E9C926DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
   <si>
     <t>STATUS</t>
   </si>
@@ -342,6 +342,63 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/sterownik-silnikow-bldc-6-20v-3a-13359462424</t>
+  </si>
+  <si>
+    <t>PTF-76 fuse holder</t>
+  </si>
+  <si>
+    <t>Allegro (tomsyty)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oprawa-bezpiecznika-5x20mm-ptf-76-z-uchwytem-1727-10001770448</t>
+  </si>
+  <si>
+    <t>ARK 2 PIN connector</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zlacze-ark-2-pin-5-08mm-5-szt-0693-5-10912515733</t>
+  </si>
+  <si>
+    <t>3A fuse (5 x 20mm, fast, 10 pcs.)</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 100 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/bezpiecznik-5x20mm-szybki-3a-10-szt-0602-10-9510464377</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-100r-101-50-szt-4425-50-12684715501</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 680 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 1000 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 1500 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 3300 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>SMD resistor (1206, 4700 Ohm, 50 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-680r-681-50-szt-4439-50-12684756050</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-1k-102-50-szt-4441-50-12684760810</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-1-5k-152-50-szt-4443-50-12684768996</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-3-3k-332-50-szt-4449-50-12684791144</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/rezystory-smd-1206-4-7k-472-50-szt-4452-50-12684801225</t>
   </si>
 </sst>
 </file>
@@ -443,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H42" totalsRowShown="0">
-  <autoFilter ref="A1:H42" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H51" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -736,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +870,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1558.6299999999999</v>
+        <v>1592.3799999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1877,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D42" s="4">
         <v>44.75</v>
@@ -1897,25 +1954,283 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F43" s="2"/>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" ref="E43:E51" si="5">PRODUCT(B43*D43)</f>
+        <v>1.85</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45267</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F45" s="2"/>
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="5"/>
+        <v>1.85</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45269</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="2"/>
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F47" s="2"/>
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45271</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45272</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45273</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45274</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45275</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57"/>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58"/>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59"/>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60"/>
+      <c r="E60"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1960,11 +2275,20 @@
     <hyperlink ref="G40" r:id="rId39" xr:uid="{DD9DA7C6-B2EB-460F-98E3-14CF452D4609}"/>
     <hyperlink ref="G41" r:id="rId40" xr:uid="{8D6E8713-2359-4426-BBB9-A1B7FB073886}"/>
     <hyperlink ref="G42" r:id="rId41" xr:uid="{C0F43067-B0F6-4A19-80FD-3844EDBD59D5}"/>
+    <hyperlink ref="G43" r:id="rId42" xr:uid="{B7B248BF-2658-4CD3-870D-443C7E20C1D1}"/>
+    <hyperlink ref="G44" r:id="rId43" xr:uid="{02A43F30-3248-41EC-919F-8E2DF9EF4C90}"/>
+    <hyperlink ref="G45" r:id="rId44" xr:uid="{6C5C1868-DBBF-4D39-ADC7-B6DF17639981}"/>
+    <hyperlink ref="G46" r:id="rId45" xr:uid="{73FBFF06-BB90-44E6-9553-4007CE26D34A}"/>
+    <hyperlink ref="G47" r:id="rId46" xr:uid="{E0EDB21F-42E3-4758-A3EA-32A38D401B44}"/>
+    <hyperlink ref="G48" r:id="rId47" xr:uid="{F1C00F09-3511-4FDA-9AE3-51262AB18DD9}"/>
+    <hyperlink ref="G49" r:id="rId48" xr:uid="{5124D3AE-4AE7-4547-9F55-23DDAAC293E0}"/>
+    <hyperlink ref="G50" r:id="rId49" xr:uid="{204B228D-1027-4D52-8CC9-53BEF1F92201}"/>
+    <hyperlink ref="G51" r:id="rId50" xr:uid="{BBF830F1-9BDD-4AC2-B3AE-B7ADF515B8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId42"/>
-    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C99942-C54D-4656-AE74-575E9C926DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90BAE23-A842-4FF8-B28F-AE81C54AAD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
   <si>
     <t>STATUS</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Male goldpin (2,54mm, 1x40)</t>
-  </si>
-  <si>
-    <t>Ordered</t>
   </si>
   <si>
     <t>ZS-X10 V3 BLDC motor driver</t>
@@ -795,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -1907,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D41" s="4">
         <v>17.57</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1947,7 +1944,7 @@
         <v>45261</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -1955,13 +1952,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4">
         <v>1.85</v>
@@ -1974,21 +1971,21 @@
         <v>45267</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4">
         <v>0.6</v>
@@ -2001,21 +1998,21 @@
         <v>45268</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4">
         <v>1.85</v>
@@ -2028,21 +2025,21 @@
         <v>45269</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
@@ -2055,21 +2052,21 @@
         <v>45270</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D47" s="4">
         <v>2</v>
@@ -2082,21 +2079,21 @@
         <v>45271</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D48" s="4">
         <v>2</v>
@@ -2109,21 +2106,21 @@
         <v>45272</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D49" s="4">
         <v>2</v>
@@ -2136,21 +2133,21 @@
         <v>45273</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D50" s="4">
         <v>2</v>
@@ -2163,21 +2160,21 @@
         <v>45274</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D51" s="4">
         <v>2.0499999999999998</v>
@@ -2190,10 +2187,10 @@
         <v>45275</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90BAE23-A842-4FF8-B28F-AE81C54AAD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21320A4E-63A7-4F3E-B5F7-464E90FD1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="152">
   <si>
     <t>STATUS</t>
   </si>
@@ -396,6 +396,102 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/rezystory-smd-1206-4-7k-472-50-szt-4452-50-12684801225</t>
+  </si>
+  <si>
+    <t>Goldpin 1 PIN socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>Goldpin 2 PIN socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>Goldpin 4 PIN socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-na-goldpin-styki-bls-01-10-szt-0092-10-11597011191</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-na-goldpin-styki-bls-02-10-szt-0094-10-11571011242</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/gniazdo-na-goldpin-styki-bls-04-5-szt-0096-5-10411158259</t>
+  </si>
+  <si>
+    <t>Goldpin male pins (25 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/piny-meskie-do-gniazd-bls-bld-25-szt-2076-25-13810658015</t>
+  </si>
+  <si>
+    <t>Car connector (6,3mm, 10 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/konektor-samochodowy-meski-6-3mm-10szt-0776-10-12650703236</t>
+  </si>
+  <si>
+    <t>Car connector cover (6,3mm, 10 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oslona-konektora-6-3mm-elast-10-szt-0108-10-11976191253</t>
+  </si>
+  <si>
+    <t>Color IDC tape (AWG28, 14 wires, 1m)</t>
+  </si>
+  <si>
+    <t>Allegro (ABC-RC_pl)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/tasma-idc-kolor-14-zyl-awg28-do-zlacz-idc-1mb-14376104118</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-420szt-metalowych-srub-nakretek-m2-czarny-14336632344</t>
+  </si>
+  <si>
+    <t>M2 screw, nut, pad set (420 pcs., black, metal)</t>
+  </si>
+  <si>
+    <t>Heat shrink tubing set (1-14mm, 164 pcs.)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zestaw-164-szt-rurek-termokurczliwych-kolor-1-do-14-mm-rurka-termokur-14506103695</t>
+  </si>
+  <si>
+    <t>Cable braid (2mm/4mm, 1m, black)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oplot-na-przewody-2mm-4mm-poliestrowy-black-1mb-14328317633</t>
+  </si>
+  <si>
+    <t>Cable braid (3mm/6mm, 1m, black)</t>
+  </si>
+  <si>
+    <t>Cable braid (4mm/8mm, 1m, black)</t>
+  </si>
+  <si>
+    <t>Cable braid (5mm/10mm, 1m, black)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oplot-na-przewody-3mm-6mm-poliestrowy-black-1mb-14328317448</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oplot-na-przewody-4mm-8mm-poliestrowy-black-1mb-14328193326</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/oplot-na-przewody-5mm-10mm-poliestrowy-black-1mb-14328186594</t>
+  </si>
+  <si>
+    <t>Allegro (handlo_net)</t>
+  </si>
+  <si>
+    <t>Banan 3.5mm connector with wire set (female+male)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/wtyczka-gniazdo-banan-3-5mm-syma-x8-walkera-6785678261</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/tasma-piankowa-dwustronna-16mm-x-2m-montazowa-11886077539</t>
+  </si>
+  <si>
+    <t>Mounting tape (16mm, 2m, 2mm, white)</t>
   </si>
 </sst>
 </file>
@@ -497,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H51" totalsRowShown="0">
-  <autoFilter ref="A1:H51" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H66" totalsRowShown="0">
+  <autoFilter ref="A1:H66" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -790,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +900,7 @@
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="104.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -867,7 +963,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1592.3799999999997</v>
+        <v>1700.84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2022,7 +2118,7 @@
         <v>1.85</v>
       </c>
       <c r="F45" s="2">
-        <v>45269</v>
+        <v>45268</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>108</v>
@@ -2049,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>45270</v>
+        <v>45268</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>109</v>
@@ -2076,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>45271</v>
+        <v>45268</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>115</v>
@@ -2103,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="2">
-        <v>45272</v>
+        <v>45268</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>116</v>
@@ -2130,7 +2226,7 @@
         <v>2</v>
       </c>
       <c r="F49" s="2">
-        <v>45273</v>
+        <v>45268</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>117</v>
@@ -2157,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2">
-        <v>45274</v>
+        <v>45268</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>118</v>
@@ -2184,7 +2280,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F51" s="2">
-        <v>45275</v>
+        <v>45268</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>119</v>
@@ -2194,40 +2290,413 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52"/>
-      <c r="E52"/>
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1.55</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" ref="E52:E60" si="6">PRODUCT(B52*D52)</f>
+        <v>3.1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53"/>
-      <c r="E53"/>
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D54"/>
-      <c r="E54"/>
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="6"/>
+        <v>1.95</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56"/>
-      <c r="E56"/>
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="6"/>
+        <v>2.65</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D57"/>
-      <c r="E57"/>
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="4">
+        <v>6</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D59"/>
-      <c r="E59"/>
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4">
+        <v>34.9</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="6"/>
+        <v>34.9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D60"/>
-      <c r="E60"/>
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" ref="E61:E67" si="7">PRODUCT(B61*D61)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="7"/>
+        <v>6.8</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="7"/>
+        <v>24.56</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45270</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67"/>
+      <c r="E67"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2281,11 +2750,26 @@
     <hyperlink ref="G49" r:id="rId48" xr:uid="{5124D3AE-4AE7-4547-9F55-23DDAAC293E0}"/>
     <hyperlink ref="G50" r:id="rId49" xr:uid="{204B228D-1027-4D52-8CC9-53BEF1F92201}"/>
     <hyperlink ref="G51" r:id="rId50" xr:uid="{BBF830F1-9BDD-4AC2-B3AE-B7ADF515B8B1}"/>
+    <hyperlink ref="G52" r:id="rId51" xr:uid="{24C4D44B-21A8-4291-AAEC-224B562F813D}"/>
+    <hyperlink ref="G53" r:id="rId52" xr:uid="{EFD84485-999F-4DB4-B6C7-71A856C5BCB7}"/>
+    <hyperlink ref="G54" r:id="rId53" xr:uid="{A539AFAC-7041-4BC0-8DC8-88766104432E}"/>
+    <hyperlink ref="G55" r:id="rId54" xr:uid="{F335BDA5-520A-45DE-B4EA-BEA5B13B7404}"/>
+    <hyperlink ref="G56" r:id="rId55" xr:uid="{AAF15848-E84A-4100-BCE5-EDA9A8E25CD6}"/>
+    <hyperlink ref="G57" r:id="rId56" xr:uid="{D1C61C6A-4337-46EA-9E44-9A85AB56ED64}"/>
+    <hyperlink ref="G58" r:id="rId57" xr:uid="{AEA52DF4-3B50-4A0A-8D94-D64E4E81CE28}"/>
+    <hyperlink ref="G59" r:id="rId58" xr:uid="{55A53144-E181-40EE-9960-D1B79387DFC4}"/>
+    <hyperlink ref="G60" r:id="rId59" xr:uid="{7A64D824-FBFC-4ED4-B850-1A9E2113026B}"/>
+    <hyperlink ref="G61" r:id="rId60" xr:uid="{54C0B32C-ADE3-43D1-878A-283B1B230D41}"/>
+    <hyperlink ref="G62" r:id="rId61" xr:uid="{A424218F-5661-478F-9084-FC177CE4FFAF}"/>
+    <hyperlink ref="G63" r:id="rId62" xr:uid="{90BAC5E7-03D4-44E9-BFDA-CB6B6DCA44C9}"/>
+    <hyperlink ref="G64" r:id="rId63" xr:uid="{2406F597-5C18-4115-8005-0E9BB3DE6E31}"/>
+    <hyperlink ref="G66" r:id="rId64" xr:uid="{CCC2B9B3-CDEB-45B6-BDFE-47325C9B448B}"/>
+    <hyperlink ref="G65" r:id="rId65" xr:uid="{1C79B802-BE99-4678-804D-C270068D64CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId51"/>
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId66"/>
+    <tablePart r:id="rId67"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21320A4E-63A7-4F3E-B5F7-464E90FD1EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED40386E-C281-46BD-97FD-EF3D91653251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>STATUS</t>
   </si>
@@ -492,6 +492,18 @@
   </si>
   <si>
     <t>Mounting tape (16mm, 2m, 2mm, white)</t>
+  </si>
+  <si>
+    <t>Allegro (msalamon_pl)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/wskaznik-naladowania-akumulatora-li-ion-uniwersalny-zielony-32-x-20-mm-13040945266</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Lithium battery charge indicator (1S-8S, green)</t>
   </si>
 </sst>
 </file>
@@ -593,8 +605,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H66" totalsRowShown="0">
-  <autoFilter ref="A1:H66" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H67" totalsRowShown="0">
+  <autoFilter ref="A1:H67" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -888,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +975,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1700.84</v>
+        <v>1710.4399999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2546,7 +2558,7 @@
         <v>1.9</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" ref="E61:E67" si="7">PRODUCT(B61*D61)</f>
+        <f t="shared" ref="E61:E66" si="7">PRODUCT(B61*D61)</f>
         <v>1.9</v>
       </c>
       <c r="F61" s="2">
@@ -2695,8 +2707,31 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D67"/>
-      <c r="E67"/>
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="E67" s="4">
+        <f>PRODUCT(B67*D67)</f>
+        <v>9.6</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45323</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H67" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2765,11 +2800,12 @@
     <hyperlink ref="G64" r:id="rId63" xr:uid="{2406F597-5C18-4115-8005-0E9BB3DE6E31}"/>
     <hyperlink ref="G66" r:id="rId64" xr:uid="{CCC2B9B3-CDEB-45B6-BDFE-47325C9B448B}"/>
     <hyperlink ref="G65" r:id="rId65" xr:uid="{1C79B802-BE99-4678-804D-C270068D64CA}"/>
+    <hyperlink ref="G67" r:id="rId66" xr:uid="{72DA93FE-CFC2-4B24-B87A-ACF218C75DDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId66"/>
     <tablePart r:id="rId67"/>
+    <tablePart r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED40386E-C281-46BD-97FD-EF3D91653251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D0139-2A85-4F5E-8002-82F99AAFB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
   <si>
     <t>STATUS</t>
   </si>
@@ -498,9 +498,6 @@
   </si>
   <si>
     <t>https://allegro.pl/oferta/wskaznik-naladowania-akumulatora-li-ion-uniwersalny-zielony-32-x-20-mm-13040945266</t>
-  </si>
-  <si>
-    <t>Ordered</t>
   </si>
   <si>
     <t>Lithium battery charge indicator (1S-8S, green)</t>
@@ -2708,13 +2705,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="D67" s="4">
         <v>9.6</v>

--- a/List of parts.xlsx
+++ b/List of parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D0139-2A85-4F5E-8002-82F99AAFB9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AD4A2-FB31-4AEB-AA2B-05C4BFB6D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="169">
   <si>
     <t>STATUS</t>
   </si>
@@ -155,15 +155,9 @@
     <t>https://allegro.pl/oferta/tasma-led-adresowalna-ws2812b-argb-60led-m-ip65-13796044103</t>
   </si>
   <si>
-    <t>JST-SM 3 PIN LED male and female cable set (15 cm)</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/wtyczka-jst-sm-3-pin-led-argb-meska-i-zenska-15-cm-13821206609</t>
   </si>
   <si>
-    <t>JST-SM 3 PIN LED splitter (15 cm)</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/rozdzielacz-jst-sm-3-pin-do-led-argb-13821309653</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>XT60 female connector with AWG12 wires</t>
   </si>
   <si>
-    <t>ARK 3 PIN connector</t>
-  </si>
-  <si>
     <t>Allegro (Platet-A)</t>
   </si>
   <si>
@@ -305,12 +296,6 @@
     <t>https://allegro.pl/oferta/zestaw-zlacz-jst-xh2-54-6-7-8-9-10-pin-2-54mm-12635826639</t>
   </si>
   <si>
-    <t>JST-XH 2-5 PIN connector set (230 pcs.)</t>
-  </si>
-  <si>
-    <t>JST-XH 6-10 PIN connector set (260 pcs.)</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/goldpin-czarny-1x40-szpil-katowy-raster-2-54mm-13410442465</t>
   </si>
   <si>
@@ -350,9 +335,6 @@
     <t>https://allegro.pl/oferta/oprawa-bezpiecznika-5x20mm-ptf-76-z-uchwytem-1727-10001770448</t>
   </si>
   <si>
-    <t>ARK 2 PIN connector</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/zlacze-ark-2-pin-5-08mm-5-szt-0693-5-10912515733</t>
   </si>
   <si>
@@ -398,15 +380,6 @@
     <t>https://allegro.pl/oferta/rezystory-smd-1206-4-7k-472-50-szt-4452-50-12684801225</t>
   </si>
   <si>
-    <t>Goldpin 1 PIN socket (10 pcs.)</t>
-  </si>
-  <si>
-    <t>Goldpin 2 PIN socket (10 pcs.)</t>
-  </si>
-  <si>
-    <t>Goldpin 4 PIN socket (10 pcs.)</t>
-  </si>
-  <si>
     <t>https://allegro.pl/oferta/gniazdo-na-goldpin-styki-bls-01-10-szt-0092-10-11597011191</t>
   </si>
   <si>
@@ -501,6 +474,75 @@
   </si>
   <si>
     <t>Lithium battery charge indicator (1S-8S, green)</t>
+  </si>
+  <si>
+    <t>JST-SM 3 pin LED male and female cable set (15 cm)</t>
+  </si>
+  <si>
+    <t>JST-SM 3 pin LED splitter (15 cm)</t>
+  </si>
+  <si>
+    <t>ARK 3 pin connector</t>
+  </si>
+  <si>
+    <t>JST-XH 2-5 pin connector set (230 pcs.)</t>
+  </si>
+  <si>
+    <t>JST-XH 6-10 pin connector set (260 pcs.)</t>
+  </si>
+  <si>
+    <t>ARK 2 pin connector</t>
+  </si>
+  <si>
+    <t>Goldpin 1 pin socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>Goldpin 2 pin socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>Goldpin 4 pin socket (10 pcs.)</t>
+  </si>
+  <si>
+    <t>JST 2 pin male connector with wires</t>
+  </si>
+  <si>
+    <t>JST 2 pin female connector with wires</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zlacze-jst-zenskie-2pin-z-przewodem-10cm-13941127737</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zlacze-jst-meskie-2pin-z-przewodem-10cm-12315481475</t>
+  </si>
+  <si>
+    <t>Allegro (ZBYROMEX)</t>
+  </si>
+  <si>
+    <t>Male XT60 -&gt; female DEAN-T adapter</t>
+  </si>
+  <si>
+    <t>Female XT60 -&gt; male DEAN-T adapter</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/adapter-zlacze-xt60-meskie-zlacze-dean-t-zen-12815880539</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/adapter-zlacze-xt60-zenskie-zlacze-dean-t-me-12815894905</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/zabezpieczenie-przed-rozladowaniem-akumulatora-12v-11446448483</t>
+  </si>
+  <si>
+    <t>Allegro (OMEGA_ZONE)</t>
+  </si>
+  <si>
+    <t>Bi-directional logic level converter (4 CH)</t>
+  </si>
+  <si>
+    <t>https://allegro.pl/oferta/konwerter-poziomow-logicznych-3-3-5v-dwustronny-11825109052</t>
+  </si>
+  <si>
+    <t>YX-X801 battery deep discharge protector (12 V DC, 10 A)</t>
   </si>
 </sst>
 </file>
@@ -602,8 +644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H67" totalsRowShown="0">
-  <autoFilter ref="A1:H67" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}" name="Main" displayName="Main" ref="A1:H73" totalsRowShown="0">
+  <autoFilter ref="A1:H73" xr:uid="{AB844FC7-134C-46AA-BA3E-7A1662AFAC66}"/>
   <tableColumns count="8">
     <tableColumn id="2" xr3:uid="{D7367AC1-33ED-4746-B20F-DF2A97AAD7C1}" name="PART NAME"/>
     <tableColumn id="7" xr3:uid="{A49DEDCB-A3F3-4E47-A1CB-9507B06E98EF}" name="QTY."/>
@@ -895,17 +937,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -972,7 +1014,7 @@
       </c>
       <c r="J2" s="1">
         <f>SUM(Main[PRICE (ALL PCS.)])</f>
-        <v>1710.4399999999998</v>
+        <v>1789.1199999999997</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,7 +1181,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1301,7 +1343,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1320,7 +1362,7 @@
         <v>45155</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -1328,7 +1370,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1347,7 +1389,7 @@
         <v>45155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
         <v>37</v>
@@ -1355,7 +1397,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1374,15 +1416,15 @@
         <v>45155</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1401,15 +1443,15 @@
         <v>45155</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1428,15 +1470,15 @@
         <v>45155</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1455,15 +1497,15 @@
         <v>45173</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1482,15 +1524,15 @@
         <v>45173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1509,15 +1551,15 @@
         <v>45173</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
         <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1536,15 +1578,15 @@
         <v>45173</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1563,15 +1605,15 @@
         <v>45173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1590,15 +1632,15 @@
         <v>45173</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1617,15 +1659,15 @@
         <v>45181</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1644,15 +1686,15 @@
         <v>45181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1671,15 +1713,15 @@
         <v>45181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1698,15 +1740,15 @@
         <v>45181</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1725,15 +1767,15 @@
         <v>45181</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="B31">
         <v>10</v>
@@ -1752,15 +1794,15 @@
         <v>45181</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1779,15 +1821,15 @@
         <v>45181</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1806,15 +1848,15 @@
         <v>45181</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1833,15 +1875,15 @@
         <v>45181</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1860,7 +1902,7 @@
         <v>45218</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -1868,7 +1910,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1887,7 +1929,7 @@
         <v>45218</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -1895,7 +1937,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1914,7 +1956,7 @@
         <v>45218</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -1922,7 +1964,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1941,7 +1983,7 @@
         <v>45218</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -1949,7 +1991,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -1968,15 +2010,15 @@
         <v>45218</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -1995,15 +2037,15 @@
         <v>45218</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -2022,15 +2064,15 @@
         <v>45257</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2049,15 +2091,15 @@
         <v>45261</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2076,15 +2118,15 @@
         <v>45267</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="B44">
         <v>30</v>
@@ -2103,15 +2145,15 @@
         <v>45268</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2130,15 +2172,15 @@
         <v>45268</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2157,15 +2199,15 @@
         <v>45268</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2184,15 +2226,15 @@
         <v>45268</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2211,15 +2253,15 @@
         <v>45268</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2238,15 +2280,15 @@
         <v>45268</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2265,15 +2307,15 @@
         <v>45268</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2292,15 +2334,15 @@
         <v>45268</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2319,15 +2361,15 @@
         <v>45268</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2346,15 +2388,15 @@
         <v>45268</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2373,15 +2415,15 @@
         <v>45268</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -2400,15 +2442,15 @@
         <v>45268</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2427,15 +2469,15 @@
         <v>45268</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2454,15 +2496,15 @@
         <v>45268</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2481,15 +2523,15 @@
         <v>45270</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H58" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2508,15 +2550,15 @@
         <v>45270</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2535,15 +2577,15 @@
         <v>45270</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2562,15 +2604,15 @@
         <v>45270</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2589,15 +2631,15 @@
         <v>45270</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2616,15 +2658,15 @@
         <v>45270</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2643,15 +2685,15 @@
         <v>45270</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2670,15 +2712,15 @@
         <v>45270</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -2697,15 +2739,15 @@
         <v>45270</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2724,10 +2766,172 @@
         <v>45323</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
-        <v>152</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" ref="E68:E73" si="8">PRODUCT(B68*D68)</f>
+        <v>7.5</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="4">
+        <v>11</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="4">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="8"/>
+        <v>22.6</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H72" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="8"/>
+        <v>17.079999999999998</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45336</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H73" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2798,11 +3002,17 @@
     <hyperlink ref="G66" r:id="rId64" xr:uid="{CCC2B9B3-CDEB-45B6-BDFE-47325C9B448B}"/>
     <hyperlink ref="G65" r:id="rId65" xr:uid="{1C79B802-BE99-4678-804D-C270068D64CA}"/>
     <hyperlink ref="G67" r:id="rId66" xr:uid="{72DA93FE-CFC2-4B24-B87A-ACF218C75DDB}"/>
+    <hyperlink ref="G69" r:id="rId67" xr:uid="{98B2BF96-CECA-4997-8F9A-6C7FBB70FD0F}"/>
+    <hyperlink ref="G68" r:id="rId68" xr:uid="{0DC58D63-9AAC-4788-8030-06CE5D99938A}"/>
+    <hyperlink ref="G70" r:id="rId69" xr:uid="{7225F3AF-B472-487F-B13C-85484FF39D7A}"/>
+    <hyperlink ref="G71" r:id="rId70" xr:uid="{5EDD8DBB-DBAD-47D9-8767-118A0E0E872A}"/>
+    <hyperlink ref="G72" r:id="rId71" xr:uid="{FC2C26D6-0C48-4854-908D-8D944232D4DF}"/>
+    <hyperlink ref="G73" r:id="rId72" xr:uid="{6215BBD2-B0C6-449F-8D2F-97AC4456E538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId67"/>
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId74"/>
   </tableParts>
 </worksheet>
 </file>